--- a/resources/Lecture 06 - P1.xlsx
+++ b/resources/Lecture 06 - P1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ioasiitm-my.sharepoint.com/personal/anmpahwa_icsrpis_iitm_ac_in/Documents/Academia/IIT Madras/Teaching/CE5972/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="354" documentId="11_F25DC773A252ABDACC1048F1295C58385BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2FE2D331-B6E6-4C94-9AB8-6CE8FB26056F}"/>
+  <xr:revisionPtr revIDLastSave="355" documentId="11_F25DC773A252ABDACC1048F1295C58385BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F9999B34-2705-494A-9415-64228C259985}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1905" windowWidth="28800" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7950" yWindow="3675" windowWidth="28800" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>x</t>
   </si>
@@ -135,9 +135,6 @@
   </si>
   <si>
     <t>Constraint Parameter (Coefficients)</t>
-  </si>
-  <si>
-    <t>Slack</t>
   </si>
   <si>
     <t>Constraint Parameter (Limits)</t>
@@ -481,8 +478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33:C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -632,7 +629,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -710,18 +707,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <f>B13 * B$3 + C13 * B$4</f>
         <v>100</v>
@@ -730,12 +724,8 @@
         <f>B22</f>
         <v>100</v>
       </c>
-      <c r="C34" s="1">
-        <f>A34-B34</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <f t="shared" ref="A35:A39" si="0">B14 * B$3 + C14 * B$4</f>
         <v>5</v>
@@ -744,12 +734,8 @@
         <f t="shared" ref="B35:B39" si="1">B23</f>
         <v>20</v>
       </c>
-      <c r="C35" s="1">
-        <f>B35-A35</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -758,12 +744,8 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="C36" s="1">
-        <f>B36-A36</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -772,12 +754,8 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="C37" s="1">
-        <f>B37-A37</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -786,12 +764,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C38" s="1">
-        <f>A38-B38</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -799,10 +773,6 @@
       <c r="B39" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
-      </c>
-      <c r="C39" s="1">
-        <f>A39-B39</f>
-        <v>5</v>
       </c>
     </row>
   </sheetData>
